--- a/db/__ ÁN 818 NASACO .xlsx
+++ b/db/__ ÁN 818 NASACO .xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FreeLancer\Nasaco\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Don hang" sheetId="1" r:id="rId1"/>
     <sheet name="NXT" sheetId="4" r:id="rId2"/>
     <sheet name="Ma tinh" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="196">
   <si>
     <t>Ngày</t>
   </si>
@@ -606,15 +611,18 @@
   </si>
   <si>
     <t>F1+F2+FA</t>
+  </si>
+  <si>
+    <t>sl_hang_nhap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -724,7 +732,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -732,20 +740,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,8 +767,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -771,7 +779,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,12 +788,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -794,10 +802,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,11 +830,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -837,6 +845,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -885,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,7 +931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,9 +1142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W148"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1164,8 @@
     <col min="13" max="13" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="1"/>
+    <col min="16" max="16" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="257" width="9.140625" style="1"/>
@@ -2356,6 +2368,9 @@
       <c r="O3" s="9" t="s">
         <v>121</v>
       </c>
+      <c r="P3" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="4" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -2401,6 +2416,9 @@
         <f>K4*N4</f>
         <v>9000000</v>
       </c>
+      <c r="P4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -2446,6 +2464,9 @@
         <f t="shared" ref="O5:O69" si="0">K5*N5</f>
         <v>129600000</v>
       </c>
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -2492,6 +2513,9 @@
       <c r="O6" s="15">
         <f t="shared" si="0"/>
         <v>86400000</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2538,6 +2562,9 @@
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
+      <c r="P7" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -2583,6 +2610,9 @@
         <f t="shared" si="0"/>
         <v>43200000</v>
       </c>
+      <c r="P8" s="10">
+        <v>1</v>
+      </c>
       <c r="W8" s="10" t="s">
         <v>191</v>
       </c>
@@ -2633,6 +2663,9 @@
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
+      <c r="P9" s="10">
+        <v>1</v>
+      </c>
       <c r="W9" s="10" t="s">
         <v>192</v>
       </c>
@@ -2682,6 +2715,9 @@
       <c r="O10" s="15">
         <f t="shared" si="0"/>
         <v>93600000</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2728,6 +2764,9 @@
         <f t="shared" si="0"/>
         <v>7200000</v>
       </c>
+      <c r="P11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -2773,6 +2812,9 @@
         <f t="shared" si="0"/>
         <v>3600000</v>
       </c>
+      <c r="P12" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -2818,6 +2860,9 @@
         <f t="shared" si="0"/>
         <v>37260000</v>
       </c>
+      <c r="P13" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -2863,6 +2908,9 @@
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
+      <c r="P14" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -2908,6 +2956,9 @@
         <f t="shared" si="0"/>
         <v>20700000</v>
       </c>
+      <c r="P15" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -2953,8 +3004,11 @@
         <f t="shared" si="0"/>
         <v>9180000</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>4</v>
       </c>
@@ -2998,8 +3052,11 @@
         <f t="shared" si="0"/>
         <v>43200000</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>5</v>
       </c>
@@ -3043,8 +3100,11 @@
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -3088,8 +3148,11 @@
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>5</v>
       </c>
@@ -3133,8 +3196,11 @@
         <f t="shared" si="0"/>
         <v>27000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>5</v>
       </c>
@@ -3178,8 +3244,11 @@
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>5</v>
       </c>
@@ -3223,8 +3292,11 @@
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>5</v>
       </c>
@@ -3268,8 +3340,11 @@
         <f t="shared" si="0"/>
         <v>62280000</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>8</v>
       </c>
@@ -3313,8 +3388,11 @@
         <f t="shared" si="0"/>
         <v>68400000</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>10</v>
       </c>
@@ -3358,8 +3436,11 @@
         <f t="shared" si="0"/>
         <v>86400000</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>16</v>
       </c>
@@ -3403,8 +3484,11 @@
         <f t="shared" si="0"/>
         <v>25200000</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>18</v>
       </c>
@@ -3448,8 +3532,11 @@
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>24</v>
       </c>
@@ -3495,8 +3582,11 @@
         <f t="shared" si="0"/>
         <v>86400000</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>31</v>
       </c>
@@ -3542,8 +3632,11 @@
         <f t="shared" si="0"/>
         <v>190800000</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>31</v>
       </c>
@@ -3589,8 +3682,11 @@
         <f t="shared" si="0"/>
         <v>43200000</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>31</v>
       </c>
@@ -3634,8 +3730,11 @@
         <f t="shared" si="0"/>
         <v>54000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>7</v>
       </c>
@@ -3679,8 +3778,11 @@
         <f t="shared" si="0"/>
         <v>86400000</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>7</v>
       </c>
@@ -3724,8 +3826,11 @@
         <f t="shared" si="0"/>
         <v>90000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>7</v>
       </c>
@@ -3771,8 +3876,11 @@
         <f t="shared" si="0"/>
         <v>129600000</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>8</v>
       </c>
@@ -3816,8 +3924,11 @@
         <f t="shared" si="0"/>
         <v>27000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>8</v>
       </c>
@@ -3861,8 +3972,11 @@
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>15</v>
       </c>
@@ -3906,8 +4020,11 @@
         <f t="shared" si="0"/>
         <v>129600000</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>15</v>
       </c>
@@ -3951,8 +4068,11 @@
         <f t="shared" si="0"/>
         <v>86400000</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>21</v>
       </c>
@@ -3998,8 +4118,11 @@
         <f t="shared" si="0"/>
         <v>86400000</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>28</v>
       </c>
@@ -4045,8 +4168,11 @@
         <f t="shared" si="0"/>
         <v>86400000</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>28</v>
       </c>
@@ -4092,8 +4218,11 @@
         <f t="shared" si="0"/>
         <v>129600000</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>6</v>
       </c>
@@ -4137,8 +4266,11 @@
         <f t="shared" si="0"/>
         <v>129600000</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>18</v>
       </c>
@@ -4182,8 +4314,11 @@
         <f t="shared" si="0"/>
         <v>86400000</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>18</v>
       </c>
@@ -4227,8 +4362,11 @@
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>19</v>
       </c>
@@ -4272,8 +4410,11 @@
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>24</v>
       </c>
@@ -4318,8 +4459,11 @@
         <f t="shared" si="0"/>
         <v>648000</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>3</v>
       </c>
@@ -4364,8 +4508,11 @@
         <f t="shared" si="0"/>
         <v>1296000</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>4</v>
       </c>
@@ -4412,8 +4559,11 @@
         <f t="shared" si="0"/>
         <v>648000</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>4</v>
       </c>
@@ -4458,8 +4608,11 @@
         <f t="shared" si="0"/>
         <v>1296000</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>7</v>
       </c>
@@ -4504,8 +4657,11 @@
         <f t="shared" si="0"/>
         <v>1944000</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>7</v>
       </c>
@@ -4552,8 +4708,11 @@
         <f t="shared" si="0"/>
         <v>1296000</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>8</v>
       </c>
@@ -4600,8 +4759,11 @@
         <f t="shared" si="0"/>
         <v>2592000</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>11</v>
       </c>
@@ -4646,8 +4808,11 @@
         <f t="shared" si="0"/>
         <v>297000</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>14</v>
       </c>
@@ -4694,8 +4859,11 @@
         <f t="shared" si="0"/>
         <v>648000</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>15</v>
       </c>
@@ -4742,8 +4910,11 @@
         <f t="shared" si="0"/>
         <v>8640000</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>2</v>
       </c>
@@ -4790,8 +4961,11 @@
         <f t="shared" si="0"/>
         <v>11520000</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>3</v>
       </c>
@@ -4838,8 +5012,11 @@
         <f t="shared" si="0"/>
         <v>5760000</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>10</v>
       </c>
@@ -4886,8 +5063,11 @@
         <f t="shared" si="0"/>
         <v>8640000</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>16</v>
       </c>
@@ -4934,8 +5114,11 @@
         <f t="shared" si="0"/>
         <v>14400000</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>16</v>
       </c>
@@ -4980,8 +5163,11 @@
         <f t="shared" si="0"/>
         <v>8640000</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P60" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <v>1</v>
       </c>
@@ -5026,8 +5212,11 @@
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>28</v>
       </c>
@@ -5072,8 +5261,11 @@
         <f t="shared" si="0"/>
         <v>486000</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>7</v>
       </c>
@@ -5118,8 +5310,11 @@
         <f t="shared" si="0"/>
         <v>1296000</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>21</v>
       </c>
@@ -5164,8 +5359,11 @@
         <f t="shared" si="0"/>
         <v>648000</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>30</v>
       </c>
@@ -5210,8 +5408,11 @@
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>3</v>
       </c>
@@ -5256,8 +5457,11 @@
         <f t="shared" si="0"/>
         <v>384000</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P66" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>21</v>
       </c>
@@ -5302,8 +5506,11 @@
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>21</v>
       </c>
@@ -5343,8 +5550,11 @@
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
       <c r="O68" s="15"/>
-    </row>
-    <row r="69" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P68" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>2</v>
       </c>
@@ -5389,8 +5599,11 @@
         <f t="shared" si="0"/>
         <v>2880000</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>2</v>
       </c>
@@ -5430,8 +5643,11 @@
       <c r="M70" s="14"/>
       <c r="N70" s="14"/>
       <c r="O70" s="15"/>
-    </row>
-    <row r="71" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>6</v>
       </c>
@@ -5476,8 +5692,11 @@
         <f t="shared" ref="O71:O72" si="2">K71*N71</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>8</v>
       </c>
@@ -5522,8 +5741,11 @@
         <f t="shared" si="2"/>
         <v>5760000</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>9</v>
       </c>
@@ -5563,8 +5785,11 @@
       <c r="M73" s="34"/>
       <c r="N73" s="34"/>
       <c r="O73" s="35"/>
-    </row>
-    <row r="74" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>11</v>
       </c>
@@ -5604,8 +5829,11 @@
       <c r="M74" s="34"/>
       <c r="N74" s="34"/>
       <c r="O74" s="35"/>
-    </row>
-    <row r="75" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P74" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>11</v>
       </c>
@@ -5645,8 +5873,11 @@
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
       <c r="O75" s="35"/>
-    </row>
-    <row r="76" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P75" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>15</v>
       </c>
@@ -5686,8 +5917,11 @@
       <c r="M76" s="34"/>
       <c r="N76" s="34"/>
       <c r="O76" s="35"/>
-    </row>
-    <row r="77" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P76" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>15</v>
       </c>
@@ -5727,8 +5961,11 @@
       <c r="M77" s="34"/>
       <c r="N77" s="34"/>
       <c r="O77" s="35"/>
-    </row>
-    <row r="78" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>24</v>
       </c>
@@ -5768,8 +6005,11 @@
       <c r="M78" s="34"/>
       <c r="N78" s="34"/>
       <c r="O78" s="35"/>
-    </row>
-    <row r="79" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>29</v>
       </c>
@@ -5809,8 +6049,11 @@
       <c r="M79" s="34"/>
       <c r="N79" s="34"/>
       <c r="O79" s="35"/>
-    </row>
-    <row r="80" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>30</v>
       </c>
@@ -5850,8 +6093,11 @@
       <c r="M80" s="34"/>
       <c r="N80" s="34"/>
       <c r="O80" s="35"/>
-    </row>
-    <row r="81" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P80" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>10</v>
       </c>
@@ -5889,8 +6135,11 @@
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
       <c r="O81" s="35"/>
-    </row>
-    <row r="82" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P81" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>11</v>
       </c>
@@ -5930,8 +6179,11 @@
       <c r="M82" s="34"/>
       <c r="N82" s="34"/>
       <c r="O82" s="35"/>
-    </row>
-    <row r="83" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P82" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>11</v>
       </c>
@@ -5971,8 +6223,11 @@
       <c r="M83" s="34"/>
       <c r="N83" s="34"/>
       <c r="O83" s="35"/>
-    </row>
-    <row r="84" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>13</v>
       </c>
@@ -6012,8 +6267,11 @@
       <c r="M84" s="34"/>
       <c r="N84" s="34"/>
       <c r="O84" s="35"/>
-    </row>
-    <row r="85" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P84" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>13</v>
       </c>
@@ -6053,8 +6311,11 @@
       <c r="M85" s="34"/>
       <c r="N85" s="34"/>
       <c r="O85" s="35"/>
-    </row>
-    <row r="86" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>13</v>
       </c>
@@ -6094,8 +6355,11 @@
       <c r="M86" s="34"/>
       <c r="N86" s="34"/>
       <c r="O86" s="35"/>
-    </row>
-    <row r="87" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P86" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>16</v>
       </c>
@@ -6135,8 +6399,11 @@
       <c r="M87" s="34"/>
       <c r="N87" s="34"/>
       <c r="O87" s="35"/>
-    </row>
-    <row r="88" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P87" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>17</v>
       </c>
@@ -6176,8 +6443,11 @@
       <c r="M88" s="34"/>
       <c r="N88" s="34"/>
       <c r="O88" s="35"/>
-    </row>
-    <row r="89" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P88" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>23</v>
       </c>
@@ -6217,8 +6487,11 @@
       <c r="M89" s="34"/>
       <c r="N89" s="34"/>
       <c r="O89" s="35"/>
-    </row>
-    <row r="90" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P89" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>24</v>
       </c>
@@ -6258,8 +6531,11 @@
       <c r="M90" s="34"/>
       <c r="N90" s="34"/>
       <c r="O90" s="35"/>
-    </row>
-    <row r="91" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P90" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>24</v>
       </c>
@@ -6299,8 +6575,11 @@
       <c r="M91" s="34"/>
       <c r="N91" s="34"/>
       <c r="O91" s="35"/>
-    </row>
-    <row r="92" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P91" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>29</v>
       </c>
@@ -6340,8 +6619,11 @@
       <c r="M92" s="34"/>
       <c r="N92" s="34"/>
       <c r="O92" s="35"/>
-    </row>
-    <row r="93" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P92" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>30</v>
       </c>
@@ -6381,8 +6663,11 @@
       <c r="M93" s="34"/>
       <c r="N93" s="34"/>
       <c r="O93" s="35"/>
-    </row>
-    <row r="94" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P93" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>31</v>
       </c>
@@ -6422,8 +6707,11 @@
       <c r="M94" s="34"/>
       <c r="N94" s="34"/>
       <c r="O94" s="35"/>
-    </row>
-    <row r="95" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P94" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>2</v>
       </c>
@@ -6463,8 +6751,11 @@
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
       <c r="O95" s="35"/>
-    </row>
-    <row r="96" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P95" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>2</v>
       </c>
@@ -6502,8 +6793,11 @@
       <c r="M96" s="34"/>
       <c r="N96" s="34"/>
       <c r="O96" s="35"/>
-    </row>
-    <row r="97" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P96" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>6</v>
       </c>
@@ -6543,8 +6837,11 @@
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
       <c r="O97" s="35"/>
-    </row>
-    <row r="98" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>7</v>
       </c>
@@ -6584,8 +6881,11 @@
       <c r="M98" s="34"/>
       <c r="N98" s="34"/>
       <c r="O98" s="35"/>
-    </row>
-    <row r="99" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P98" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>8</v>
       </c>
@@ -6625,8 +6925,11 @@
       <c r="M99" s="34"/>
       <c r="N99" s="34"/>
       <c r="O99" s="35"/>
-    </row>
-    <row r="100" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P99" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>11</v>
       </c>
@@ -6666,8 +6969,11 @@
       <c r="M100" s="34"/>
       <c r="N100" s="34"/>
       <c r="O100" s="35"/>
-    </row>
-    <row r="101" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P100" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>14</v>
       </c>
@@ -6707,8 +7013,11 @@
       <c r="M101" s="34"/>
       <c r="N101" s="34"/>
       <c r="O101" s="35"/>
-    </row>
-    <row r="102" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P101" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>14</v>
       </c>
@@ -6748,8 +7057,11 @@
       <c r="M102" s="34"/>
       <c r="N102" s="34"/>
       <c r="O102" s="35"/>
-    </row>
-    <row r="103" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P102" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>15</v>
       </c>
@@ -6789,8 +7101,11 @@
       <c r="M103" s="34"/>
       <c r="N103" s="34"/>
       <c r="O103" s="35"/>
-    </row>
-    <row r="104" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P103" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>18</v>
       </c>
@@ -6830,8 +7145,11 @@
       <c r="M104" s="34"/>
       <c r="N104" s="34"/>
       <c r="O104" s="35"/>
-    </row>
-    <row r="105" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>18</v>
       </c>
@@ -6871,8 +7189,11 @@
       <c r="M105" s="34"/>
       <c r="N105" s="34"/>
       <c r="O105" s="35"/>
-    </row>
-    <row r="106" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P105" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>19</v>
       </c>
@@ -6912,8 +7233,11 @@
       <c r="M106" s="34"/>
       <c r="N106" s="34"/>
       <c r="O106" s="35"/>
-    </row>
-    <row r="107" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P106" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>25</v>
       </c>
@@ -6953,8 +7277,11 @@
       <c r="M107" s="34"/>
       <c r="N107" s="34"/>
       <c r="O107" s="35"/>
-    </row>
-    <row r="108" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P107" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>26</v>
       </c>
@@ -6994,8 +7321,11 @@
       <c r="M108" s="34"/>
       <c r="N108" s="34"/>
       <c r="O108" s="35"/>
-    </row>
-    <row r="109" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P108" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>26</v>
       </c>
@@ -7035,8 +7365,11 @@
       <c r="M109" s="34"/>
       <c r="N109" s="34"/>
       <c r="O109" s="35"/>
-    </row>
-    <row r="110" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P109" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>28</v>
       </c>
@@ -7076,8 +7409,11 @@
       <c r="M110" s="34"/>
       <c r="N110" s="34"/>
       <c r="O110" s="35"/>
-    </row>
-    <row r="111" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P110" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>28</v>
       </c>
@@ -7117,8 +7453,11 @@
       <c r="M111" s="34"/>
       <c r="N111" s="34"/>
       <c r="O111" s="35"/>
-    </row>
-    <row r="112" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P111" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>7</v>
       </c>
@@ -7158,8 +7497,11 @@
       <c r="M112" s="34"/>
       <c r="N112" s="34"/>
       <c r="O112" s="35"/>
-    </row>
-    <row r="113" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P112" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>7</v>
       </c>
@@ -7199,8 +7541,11 @@
       <c r="M113" s="34"/>
       <c r="N113" s="34"/>
       <c r="O113" s="35"/>
-    </row>
-    <row r="114" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P113" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>7</v>
       </c>
@@ -7240,8 +7585,11 @@
       <c r="M114" s="34"/>
       <c r="N114" s="34"/>
       <c r="O114" s="35"/>
-    </row>
-    <row r="115" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P114" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>10</v>
       </c>
@@ -7281,8 +7629,11 @@
       <c r="M115" s="34"/>
       <c r="N115" s="34"/>
       <c r="O115" s="35"/>
-    </row>
-    <row r="116" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P115" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>11</v>
       </c>
@@ -7322,8 +7673,11 @@
       <c r="M116" s="34"/>
       <c r="N116" s="34"/>
       <c r="O116" s="35"/>
-    </row>
-    <row r="117" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>12</v>
       </c>
@@ -7363,8 +7717,11 @@
       <c r="M117" s="34"/>
       <c r="N117" s="34"/>
       <c r="O117" s="35"/>
-    </row>
-    <row r="118" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P117" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>18</v>
       </c>
@@ -7404,8 +7761,11 @@
       <c r="M118" s="34"/>
       <c r="N118" s="34"/>
       <c r="O118" s="35"/>
-    </row>
-    <row r="119" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P118" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>24</v>
       </c>
@@ -7445,8 +7805,11 @@
       <c r="M119" s="34"/>
       <c r="N119" s="34"/>
       <c r="O119" s="35"/>
-    </row>
-    <row r="120" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P119" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>1</v>
       </c>
@@ -7486,8 +7849,11 @@
       <c r="M120" s="14"/>
       <c r="N120" s="14"/>
       <c r="O120" s="12"/>
-    </row>
-    <row r="121" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P120" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>3</v>
       </c>
@@ -7527,8 +7893,11 @@
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>
       <c r="O121" s="12"/>
-    </row>
-    <row r="122" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P121" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>3</v>
       </c>
@@ -7568,8 +7937,11 @@
       <c r="M122" s="14"/>
       <c r="N122" s="14"/>
       <c r="O122" s="12"/>
-    </row>
-    <row r="123" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P122" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="13">
         <v>4</v>
       </c>
@@ -7609,8 +7981,11 @@
       <c r="M123" s="14"/>
       <c r="N123" s="14"/>
       <c r="O123" s="12"/>
-    </row>
-    <row r="124" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P123" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>4</v>
       </c>
@@ -7650,8 +8025,11 @@
       <c r="M124" s="14"/>
       <c r="N124" s="14"/>
       <c r="O124" s="12"/>
-    </row>
-    <row r="125" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P124" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>4</v>
       </c>
@@ -7691,8 +8069,11 @@
       <c r="M125" s="14"/>
       <c r="N125" s="14"/>
       <c r="O125" s="12"/>
-    </row>
-    <row r="126" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P125" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>6</v>
       </c>
@@ -7732,8 +8113,11 @@
       <c r="M126" s="14"/>
       <c r="N126" s="14"/>
       <c r="O126" s="12"/>
-    </row>
-    <row r="127" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P126" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>7</v>
       </c>
@@ -7773,8 +8157,11 @@
       <c r="M127" s="14"/>
       <c r="N127" s="14"/>
       <c r="O127" s="12"/>
-    </row>
-    <row r="128" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P127" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>7</v>
       </c>
@@ -7814,8 +8201,11 @@
       <c r="M128" s="14"/>
       <c r="N128" s="14"/>
       <c r="O128" s="12"/>
-    </row>
-    <row r="129" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P128" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>11</v>
       </c>
@@ -7855,8 +8245,11 @@
       <c r="M129" s="14"/>
       <c r="N129" s="14"/>
       <c r="O129" s="12"/>
-    </row>
-    <row r="130" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P129" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>14</v>
       </c>
@@ -7896,8 +8289,11 @@
       <c r="M130" s="14"/>
       <c r="N130" s="14"/>
       <c r="O130" s="12"/>
-    </row>
-    <row r="131" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P130" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="13">
         <v>14</v>
       </c>
@@ -7937,8 +8333,11 @@
       <c r="M131" s="14"/>
       <c r="N131" s="14"/>
       <c r="O131" s="12"/>
-    </row>
-    <row r="132" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P131" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="13">
         <v>15</v>
       </c>
@@ -7978,8 +8377,11 @@
       <c r="M132" s="14"/>
       <c r="N132" s="14"/>
       <c r="O132" s="12"/>
-    </row>
-    <row r="133" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P132" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="13">
         <v>19</v>
       </c>
@@ -8019,8 +8421,11 @@
       <c r="M133" s="14"/>
       <c r="N133" s="14"/>
       <c r="O133" s="12"/>
-    </row>
-    <row r="134" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P133" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>23</v>
       </c>
@@ -8060,8 +8465,11 @@
       <c r="M134" s="14"/>
       <c r="N134" s="14"/>
       <c r="O134" s="12"/>
-    </row>
-    <row r="135" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P134" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>23</v>
       </c>
@@ -8101,8 +8509,11 @@
       <c r="M135" s="14"/>
       <c r="N135" s="14"/>
       <c r="O135" s="12"/>
-    </row>
-    <row r="136" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P135" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="13">
         <v>11</v>
@@ -8140,8 +8551,11 @@
       <c r="M136" s="14"/>
       <c r="N136" s="14"/>
       <c r="O136" s="12"/>
-    </row>
-    <row r="137" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P136" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>24</v>
       </c>
@@ -8181,8 +8595,11 @@
       <c r="M137" s="14"/>
       <c r="N137" s="14"/>
       <c r="O137" s="12"/>
-    </row>
-    <row r="138" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P137" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="13">
         <v>28</v>
       </c>
@@ -8222,8 +8639,11 @@
       <c r="M138" s="14"/>
       <c r="N138" s="14"/>
       <c r="O138" s="12"/>
-    </row>
-    <row r="139" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P138" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="13">
         <v>2</v>
       </c>
@@ -8263,8 +8683,11 @@
       <c r="M139" s="14"/>
       <c r="N139" s="14"/>
       <c r="O139" s="12"/>
-    </row>
-    <row r="140" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P139" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="13">
         <v>12</v>
       </c>
@@ -8304,8 +8727,11 @@
       <c r="M140" s="14"/>
       <c r="N140" s="14"/>
       <c r="O140" s="12"/>
-    </row>
-    <row r="141" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P140" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>12</v>
       </c>
@@ -8345,8 +8771,11 @@
       <c r="M141" s="14"/>
       <c r="N141" s="14"/>
       <c r="O141" s="12"/>
-    </row>
-    <row r="142" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P141" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>14</v>
       </c>
@@ -8386,8 +8815,11 @@
       <c r="M142" s="14"/>
       <c r="N142" s="14"/>
       <c r="O142" s="12"/>
-    </row>
-    <row r="143" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P142" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>16</v>
       </c>
@@ -8427,8 +8859,11 @@
       <c r="M143" s="14"/>
       <c r="N143" s="14"/>
       <c r="O143" s="12"/>
-    </row>
-    <row r="144" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P143" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>16</v>
       </c>
@@ -8468,8 +8903,11 @@
       <c r="M144" s="14"/>
       <c r="N144" s="14"/>
       <c r="O144" s="12"/>
-    </row>
-    <row r="145" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P144" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>16</v>
       </c>
@@ -8509,8 +8947,11 @@
       <c r="M145" s="14"/>
       <c r="N145" s="14"/>
       <c r="O145" s="12"/>
-    </row>
-    <row r="146" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P145" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>20</v>
       </c>
@@ -8550,8 +8991,11 @@
       <c r="M146" s="14"/>
       <c r="N146" s="14"/>
       <c r="O146" s="12"/>
-    </row>
-    <row r="147" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P146" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>26</v>
       </c>
@@ -8591,8 +9035,11 @@
       <c r="M147" s="14"/>
       <c r="N147" s="14"/>
       <c r="O147" s="12"/>
-    </row>
-    <row r="148" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P147" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>31</v>
       </c>
@@ -8629,6 +9076,9 @@
       <c r="M148" s="14"/>
       <c r="N148" s="14"/>
       <c r="O148" s="12"/>
+      <c r="P148" s="10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8640,7 +9090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
